--- a/Определение свящей сущеностей.xlsx
+++ b/Определение свящей сущеностей.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel\6 семестр\Базы данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44A28A-3C76-4D22-AE00-7E78A42887AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C068482-6E45-44E4-B6A9-F9E90929CEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7609472-4F9E-423B-A1BE-5CBD03219348}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B7609472-4F9E-423B-A1BE-5CBD03219348}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="182">
   <si>
     <t>Имена множества сущностей</t>
   </si>
@@ -189,9 +190,6 @@
     <t>id автомобиль, id сц, дата начала, дата конца, причины, документы, статус</t>
   </si>
   <si>
-    <t>id автомобиль, стоимость ремонта, дата начала, дата конца, место,</t>
-  </si>
-  <si>
     <t>id автомобиль, широта, долгота</t>
   </si>
   <si>
@@ -219,9 +217,6 @@
     <t>id автомобиль ,id арендатор, дата начала, дата конца</t>
   </si>
   <si>
-    <t>id региона, адрес</t>
-  </si>
-  <si>
     <t>id сц, id услуга, стоимость</t>
   </si>
   <si>
@@ -247,6 +242,348 @@
   </si>
   <si>
     <t>Имя множества сущностей</t>
+  </si>
+  <si>
+    <t>id автомобиль, широта, долгота, время</t>
+  </si>
+  <si>
+    <t>id автомобиль, стоимость ремонта, дата начала, дата конца, место</t>
+  </si>
+  <si>
+    <t>id района, название, адрес</t>
+  </si>
+  <si>
+    <t>название, id района, адрес</t>
+  </si>
+  <si>
+    <t>Сущность</t>
+  </si>
+  <si>
+    <t>Атрибут</t>
+  </si>
+  <si>
+    <t>Домен</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>NUMERIC(3,1)</t>
+  </si>
+  <si>
+    <t>id региона, id класса, номер, марка, модель,  цвет, вместимость, V двигателя, расход топлива</t>
+  </si>
+  <si>
+    <t>id_region</t>
+  </si>
+  <si>
+    <t>id_class</t>
+  </si>
+  <si>
+    <t>fuel_consumption</t>
+  </si>
+  <si>
+    <t>engine_volume</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>price_list</t>
+  </si>
+  <si>
+    <t>id_car</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>id_account</t>
+  </si>
+  <si>
+    <t>id_role</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password hash</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>id_action</t>
+  </si>
+  <si>
+    <t>id аккаунта, вид, старое значение, новое значение</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>old_value</t>
+  </si>
+  <si>
+    <t>new_value</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>id_employee</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>passport_series</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>drive_license_date</t>
+  </si>
+  <si>
+    <t>license_ack</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>id аккаунта, ФИО, номер телефона, серия номер паспорта, дата рождения</t>
+  </si>
+  <si>
+    <t>renter</t>
+  </si>
+  <si>
+    <t>id_renter</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>id__renter</t>
+  </si>
+  <si>
+    <t>begin_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>id_parking</t>
+  </si>
+  <si>
+    <t>id_district</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>id_fine</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>begin_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>receiving_time</t>
+  </si>
+  <si>
+    <t>payment_time</t>
+  </si>
+  <si>
+    <t>visit_sc</t>
+  </si>
+  <si>
+    <t>id_sc</t>
+  </si>
+  <si>
+    <t>documents</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>maintenance_info</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>NUMERIC(11,2)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>sity</t>
+  </si>
+  <si>
+    <t>id_sity</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>id_gps</t>
+  </si>
+  <si>
+    <t>payment_token</t>
+  </si>
+  <si>
+    <t>last_digits</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>payment_system</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>id_service</t>
+  </si>
+  <si>
+    <t>id_card</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>discription</t>
+  </si>
+  <si>
+    <t>service_sc</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+  </si>
+  <si>
+    <t>VARCAHR(32)</t>
+  </si>
+  <si>
+    <t>id посещение сц, id автомобиль</t>
+  </si>
+  <si>
+    <t>id_visit_sc</t>
+  </si>
+  <si>
+    <t>Списание</t>
+  </si>
+  <si>
+    <t>id банк карты, id брони, интервал времени, сумма</t>
+  </si>
+  <si>
+    <t>id автомобиль ,id арендатор, тип тарифа, дата начала, дата конца</t>
+  </si>
+  <si>
+    <t>id автомобиль, id услуга сц, дата начала, дата конца, причины, документы, статус</t>
+  </si>
+  <si>
+    <t>id_service_sc</t>
+  </si>
+  <si>
+    <t>E22</t>
   </si>
 </sst>
 </file>
@@ -328,15 +665,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -669,17 +1012,69 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8E0DABA2-0C21-46BE-B600-BAB33D6F66A6}">
+  <we:reference id="wa200005502" version="1.0.0.12" store="ru-RU" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.12" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;dn_LD1kVLTuVLh5opjsxg&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CREATE_PROMPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F0A8DA-4957-4D04-A95B-7364D07A1372}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="23" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="23" width="3.44140625" customWidth="1"/>
     <col min="25" max="25" width="26.6640625" customWidth="1"/>
     <col min="26" max="26" width="119.33203125" customWidth="1"/>
   </cols>
@@ -749,13 +1144,13 @@
         <v>41</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Z1" t="s">
         <v>42</v>
@@ -772,11 +1167,10 @@
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -792,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -813,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -834,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -925,7 +1319,6 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
@@ -960,11 +1353,14 @@
         <v>26</v>
       </c>
       <c r="K10" s="5"/>
+      <c r="W10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="Y10" t="s">
         <v>5</v>
       </c>
       <c r="Z10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -975,14 +1371,14 @@
         <v>21</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Y11" t="s">
         <v>34</v>
       </c>
       <c r="Z11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1000,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="Z12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -1039,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="Z14" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -1053,18 +1449,17 @@
         <v>26</v>
       </c>
       <c r="P15" s="5"/>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W15" s="6"/>
       <c r="Y15" t="s">
         <v>9</v>
       </c>
       <c r="Z15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1077,11 +1472,7 @@
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="P16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="Q16" s="5"/>
@@ -1092,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="Z16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1123,7 +1514,10 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -1134,7 +1528,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -1152,12 +1546,12 @@
         <v>39</v>
       </c>
       <c r="Z19" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1166,36 +1560,48 @@
         <v>26</v>
       </c>
       <c r="U20" s="5"/>
+      <c r="W20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="Y20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="6"/>
       <c r="Y21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669A4CEE-117C-4AE0-A7AF-A1BAA1F758E0}">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,14 +1624,14 @@
     <col min="17" max="19" width="3.33203125" customWidth="1"/>
     <col min="20" max="20" width="3.44140625" customWidth="1"/>
     <col min="21" max="21" width="3.5546875" customWidth="1"/>
-    <col min="22" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="30.33203125" customWidth="1"/>
-    <col min="26" max="26" width="121.33203125" customWidth="1"/>
-    <col min="27" max="27" width="88.109375" customWidth="1"/>
+    <col min="22" max="24" width="3" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="26" max="26" width="30.33203125" customWidth="1"/>
+    <col min="27" max="27" width="121.33203125" customWidth="1"/>
+    <col min="28" max="28" width="88.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,23 +1696,20 @@
         <v>41</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1317,11 +1720,10 @@
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1333,18 +1735,12 @@
       <c r="T2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1358,14 +1754,8 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1379,14 +1769,8 @@
       <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1406,14 +1790,8 @@
       <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1424,14 +1802,8 @@
         <v>26</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="Y6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1442,14 +1814,8 @@
         <v>26</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1460,21 +1826,14 @@
         <v>26</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="Y8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1488,14 +1847,8 @@
       <c r="U9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1509,14 +1862,11 @@
         <v>26</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="Y10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="X10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1524,17 +1874,11 @@
         <v>21</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="Q11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1545,14 +1889,8 @@
         <v>26</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="Y12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1563,17 +1901,12 @@
         <v>26</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="P13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P13" s="9"/>
+      <c r="W13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1584,38 +1917,25 @@
         <v>26</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="Y14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="N15" s="9"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="W15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1625,10 +1945,9 @@
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="P16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1636,14 +1955,8 @@
       <c r="R16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1657,35 +1970,23 @@
       <c r="S17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S18" s="5"/>
-      <c r="Y18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1696,16 +1997,10 @@
         <v>26</v>
       </c>
       <c r="T19" s="5"/>
-      <c r="Y19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" t="s">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -1714,57 +2009,1172 @@
         <v>26</v>
       </c>
       <c r="U20" s="5"/>
-      <c r="Y20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="W22" s="5"/>
-      <c r="Y22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>61</v>
-      </c>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7A69C1-42F0-417D-96AF-2EA76F272B54}">
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView zoomScale="94" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="119.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="8"/>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="8"/>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="8"/>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="8"/>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="8"/>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="8"/>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="8"/>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="8"/>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="8"/>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="8"/>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="8"/>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="8"/>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="8"/>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="8"/>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="8"/>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="8"/>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="8"/>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="8"/>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="8"/>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="8"/>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="8"/>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="8"/>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="8"/>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="8"/>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="8"/>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="8"/>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="8"/>
+      <c r="E57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="8"/>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="8"/>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="8"/>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="8"/>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="8"/>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="8"/>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65" s="8"/>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="8"/>
+      <c r="E66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68" s="8"/>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" s="8"/>
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="8"/>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="8"/>
+      <c r="E72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74" s="8"/>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75" s="8"/>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="8"/>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D78" s="8"/>
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="8"/>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="8"/>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="8"/>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="8"/>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="8"/>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="8"/>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="8"/>
+      <c r="E88" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="8"/>
+      <c r="E89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="8"/>
+      <c r="E90" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="8"/>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="8"/>
+      <c r="E93" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="8"/>
+      <c r="E95" t="s">
+        <v>162</v>
+      </c>
+      <c r="F95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="8"/>
+      <c r="E96" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D79:D81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>